--- a/data/Data with incorrect columns.xlsx
+++ b/data/Data with incorrect columns.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luxotticagroup-my.sharepoint.com/personal/huaren_chua_essilor_com/Documents/Desktop/CLEaN Tool/Test Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yucky.hito\OneDrive - Luxottica Group S.p.A\Documents\Projects\clean-tool-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{631E0F42-115C-4524-B0B7-929E29F266E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCF67F6E-19D8-4460-9402-DDAC1F80CE95}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{883323D6-CAFE-444F-9573-B5A4E49F7811}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27975" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>al_r</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>S80072</t>
   </si>
@@ -105,12 +101,21 @@
   </si>
   <si>
     <t>se_r</t>
+  </si>
+  <si>
+    <t>al_r_2</t>
+  </si>
+  <si>
+    <t>al_r_1</t>
+  </si>
+  <si>
+    <t>al_r_0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,16 +156,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,70 +495,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47C2821-6468-4AFE-9B2F-C85F0117D392}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -576,10 +601,16 @@
       <c r="L2" s="2">
         <v>24.49</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="2">
+        <v>24.49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -616,10 +647,16 @@
       <c r="L3" s="2">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="2">
+        <v>23.75</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -656,10 +693,16 @@
       <c r="L4" s="2">
         <v>23.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="2">
+        <v>23.24</v>
+      </c>
+      <c r="N4" s="2">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
@@ -696,10 +739,16 @@
       <c r="L5" s="2">
         <v>23.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="2">
+        <v>23.65</v>
+      </c>
+      <c r="N5" s="2">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
@@ -736,10 +785,16 @@
       <c r="L6" s="2">
         <v>24.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="2">
+        <v>24.06</v>
+      </c>
+      <c r="N6" s="2">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -776,10 +831,16 @@
       <c r="L7" s="2">
         <v>23.47</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2">
+        <v>23.47</v>
+      </c>
+      <c r="N7" s="2">
+        <v>23.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
@@ -816,10 +877,16 @@
       <c r="L8" s="2">
         <v>23.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="2">
+        <v>23.88</v>
+      </c>
+      <c r="N8" s="2">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
@@ -856,10 +923,16 @@
       <c r="L9" s="2">
         <v>23.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="2">
+        <v>23.21</v>
+      </c>
+      <c r="N9" s="2">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11</v>
@@ -896,10 +969,16 @@
       <c r="L10" s="2">
         <v>23.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="2">
+        <v>23.24</v>
+      </c>
+      <c r="N10" s="2">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -936,10 +1015,16 @@
       <c r="L11" s="2">
         <v>23.65</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="2">
+        <v>23.65</v>
+      </c>
+      <c r="N11" s="2">
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
@@ -974,6 +1059,12 @@
         <v>-2.75</v>
       </c>
       <c r="L12" s="2">
+        <v>24.06</v>
+      </c>
+      <c r="M12" s="2">
+        <v>24.06</v>
+      </c>
+      <c r="N12" s="2">
         <v>24.06</v>
       </c>
     </row>

--- a/data/Data with incorrect columns.xlsx
+++ b/data/Data with incorrect columns.xlsx
@@ -880,7 +880,7 @@
         <v>23.65</v>
       </c>
       <c r="M11" t="str">
-        <v>23.65</v>
+        <v>23,,65</v>
       </c>
       <c r="N11" t="str">
         <v>23.65</v>

--- a/data/Data with incorrect columns.xlsx
+++ b/data/Data with incorrect columns.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,33 +416,36 @@
         <v>sph_l</v>
       </c>
       <c r="E1" t="str">
+        <v>hello</v>
+      </c>
+      <c r="F1" t="str">
         <v>sph_r</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>cyl_l</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>cyl_r</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>axis_l</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>axis_r</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>se_l</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>se_r</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>al_r_0</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>al_r_1</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>al_r_2</v>
       </c>
     </row>
@@ -459,15 +462,12 @@
       <c r="D2" t="str">
         <v>-2.75</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>-0.75</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>-0.5</v>
       </c>
-      <c r="G2" t="str">
-        <v>0</v>
-      </c>
       <c r="H2" t="str">
         <v>0</v>
       </c>
@@ -475,18 +475,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
         <v>-3</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>-0.75</v>
-      </c>
-      <c r="L2" t="str">
-        <v>24.49</v>
       </c>
       <c r="M2" t="str">
         <v>24.49</v>
       </c>
       <c r="N2" t="str">
+        <v>24.49</v>
+      </c>
+      <c r="O2" t="str">
         <v>24.49</v>
       </c>
     </row>
@@ -503,12 +506,9 @@
       <c r="D3" t="str">
         <v>-1</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>-1.75</v>
       </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
       <c r="G3" t="str">
         <v>0</v>
       </c>
@@ -519,18 +519,21 @@
         <v>0</v>
       </c>
       <c r="J3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
         <v>-1</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>-1.75</v>
-      </c>
-      <c r="L3" t="str">
-        <v>23.75</v>
       </c>
       <c r="M3" t="str">
         <v>23.75</v>
       </c>
       <c r="N3" t="str">
+        <v>23.75</v>
+      </c>
+      <c r="O3" t="str">
         <v>23.75</v>
       </c>
     </row>
@@ -547,34 +550,34 @@
       <c r="D4" t="str">
         <v>-1.5</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>-1.5</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>-2.75</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <v>-2.5</v>
-      </c>
-      <c r="H4" t="str">
-        <v>110</v>
       </c>
       <c r="I4" t="str">
         <v>110</v>
       </c>
       <c r="J4" t="str">
+        <v>110</v>
+      </c>
+      <c r="K4" t="str">
         <v>-2.875</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <v>-2.75</v>
-      </c>
-      <c r="L4" t="str">
-        <v>23.24</v>
       </c>
       <c r="M4" t="str">
         <v>23.24</v>
       </c>
       <c r="N4" t="str">
+        <v>23.24</v>
+      </c>
+      <c r="O4" t="str">
         <v>23.24</v>
       </c>
     </row>
@@ -591,34 +594,34 @@
       <c r="D5" t="str">
         <v>-3</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>-3.5</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <v>-1.25</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <v>-1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>95</v>
       </c>
       <c r="I5" t="str">
         <v>95</v>
       </c>
       <c r="J5" t="str">
+        <v>95</v>
+      </c>
+      <c r="K5" t="str">
         <v>-3.625</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <v>-4</v>
-      </c>
-      <c r="L5" t="str">
-        <v>23.65</v>
       </c>
       <c r="M5" t="str">
         <v>23.65</v>
       </c>
       <c r="N5" t="str">
+        <v>23.65</v>
+      </c>
+      <c r="O5" t="str">
         <v>23.65</v>
       </c>
     </row>
@@ -635,34 +638,34 @@
       <c r="D6" t="str">
         <v>-2.25</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v>-2</v>
-      </c>
-      <c r="F6" t="str">
-        <v>-0.25</v>
       </c>
       <c r="G6" t="str">
         <v>-0.25</v>
       </c>
       <c r="H6" t="str">
-        <v>80</v>
+        <v>-0.25</v>
       </c>
       <c r="I6" t="str">
         <v>80</v>
       </c>
       <c r="J6" t="str">
+        <v>80</v>
+      </c>
+      <c r="K6" t="str">
         <v>-2.375</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <v>-2.125</v>
-      </c>
-      <c r="L6" t="str">
-        <v>24.06</v>
       </c>
       <c r="M6" t="str">
         <v>24.06</v>
       </c>
       <c r="N6" t="str">
+        <v>24.06</v>
+      </c>
+      <c r="O6" t="str">
         <v>24.06</v>
       </c>
     </row>
@@ -679,12 +682,9 @@
       <c r="D7" t="str">
         <v>-7.25</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <v>-1.25</v>
       </c>
-      <c r="F7" t="str">
-        <v>0</v>
-      </c>
       <c r="G7" t="str">
         <v>0</v>
       </c>
@@ -695,18 +695,21 @@
         <v>0</v>
       </c>
       <c r="J7" t="str">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
         <v>-7.25</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <v>-1.25</v>
-      </c>
-      <c r="L7" t="str">
-        <v>23.47</v>
       </c>
       <c r="M7" t="str">
         <v>23.47</v>
       </c>
       <c r="N7" t="str">
+        <v>23.47</v>
+      </c>
+      <c r="O7" t="str">
         <v>23.47</v>
       </c>
     </row>
@@ -723,15 +726,12 @@
       <c r="D8" t="str">
         <v>-1.75</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v>-1.75</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <v>-3</v>
       </c>
-      <c r="G8" t="str">
-        <v>0</v>
-      </c>
       <c r="H8" t="str">
         <v>0</v>
       </c>
@@ -739,18 +739,21 @@
         <v>0</v>
       </c>
       <c r="J8" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
         <v>-3.25</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <v>-1.75</v>
-      </c>
-      <c r="L8" t="str">
-        <v>23.88</v>
       </c>
       <c r="M8" t="str">
         <v>23.88</v>
       </c>
       <c r="N8" t="str">
+        <v>23.88</v>
+      </c>
+      <c r="O8" t="str">
         <v>23.88</v>
       </c>
     </row>
@@ -767,34 +770,34 @@
       <c r="D9" t="str">
         <v>-2</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <v>-1</v>
-      </c>
-      <c r="F9" t="str">
-        <v>-0.5</v>
       </c>
       <c r="G9" t="str">
         <v>-0.5</v>
       </c>
       <c r="H9" t="str">
-        <v>175</v>
+        <v>-0.5</v>
       </c>
       <c r="I9" t="str">
         <v>175</v>
       </c>
       <c r="J9" t="str">
+        <v>175</v>
+      </c>
+      <c r="K9" t="str">
         <v>-2..25</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <v>-1.25</v>
-      </c>
-      <c r="L9" t="str">
-        <v>23.21</v>
       </c>
       <c r="M9" t="str">
         <v>23.21</v>
       </c>
       <c r="N9" t="str">
+        <v>23.21</v>
+      </c>
+      <c r="O9" t="str">
         <v>23.21</v>
       </c>
     </row>
@@ -811,34 +814,34 @@
       <c r="D10" t="str">
         <v>-3.25</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v>-9.25</v>
-      </c>
-      <c r="F10" t="str">
-        <v>-4.5</v>
       </c>
       <c r="G10" t="str">
         <v>-4.5</v>
       </c>
       <c r="H10" t="str">
-        <v>120</v>
+        <v>-4.5</v>
       </c>
       <c r="I10" t="str">
         <v>120</v>
       </c>
       <c r="J10" t="str">
+        <v>120</v>
+      </c>
+      <c r="K10" t="str">
         <v>-5.5</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <v>-11.5</v>
-      </c>
-      <c r="L10" t="str">
-        <v>23.24</v>
       </c>
       <c r="M10" t="str">
         <v>23.24</v>
       </c>
       <c r="N10" t="str">
+        <v>23.24</v>
+      </c>
+      <c r="O10" t="str">
         <v>23.24</v>
       </c>
     </row>
@@ -855,34 +858,34 @@
       <c r="D11" t="str">
         <v>-9</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <v>-8</v>
-      </c>
-      <c r="F11" t="str">
-        <v>-2</v>
       </c>
       <c r="G11" t="str">
         <v>-2</v>
       </c>
       <c r="H11" t="str">
-        <v>50</v>
+        <v>-2</v>
       </c>
       <c r="I11" t="str">
         <v>50</v>
       </c>
       <c r="J11" t="str">
+        <v>50</v>
+      </c>
+      <c r="K11" t="str">
         <v>-10</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <v>-9</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <v>23.65</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <v>23,,65</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" t="str">
         <v>23.65</v>
       </c>
     </row>
@@ -899,29 +902,26 @@
       <c r="D12" t="str">
         <v>-2.75</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" t="str">
         <v>-2.5</v>
-      </c>
-      <c r="F12" t="str">
-        <v>-0.5</v>
       </c>
       <c r="G12" t="str">
         <v>-0.5</v>
       </c>
       <c r="H12" t="str">
-        <v>60</v>
+        <v>-0.5</v>
       </c>
       <c r="I12" t="str">
         <v>60</v>
       </c>
       <c r="J12" t="str">
+        <v>60</v>
+      </c>
+      <c r="K12" t="str">
         <v>-3</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <v>-2.75</v>
-      </c>
-      <c r="L12" t="str">
-        <v>24.06</v>
       </c>
       <c r="M12" t="str">
         <v>24.06</v>
@@ -929,10 +929,117 @@
       <c r="N12" t="str">
         <v>24.06</v>
       </c>
+      <c r="O12" t="str">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>S00091</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>S00092</v>
+      </c>
+      <c r="B14" t="str">
+        <v>na</v>
+      </c>
+      <c r="C14" t="str">
+        <v>na</v>
+      </c>
+      <c r="D14" t="str">
+        <v>na</v>
+      </c>
+      <c r="F14" t="str">
+        <v>na</v>
+      </c>
+      <c r="G14" t="str">
+        <v>na</v>
+      </c>
+      <c r="H14" t="str">
+        <v>na</v>
+      </c>
+      <c r="I14" t="str">
+        <v>na</v>
+      </c>
+      <c r="J14" t="str">
+        <v>na</v>
+      </c>
+      <c r="K14" t="str">
+        <v>na</v>
+      </c>
+      <c r="L14" t="str">
+        <v>na</v>
+      </c>
+      <c r="M14" t="str">
+        <v>na</v>
+      </c>
+      <c r="N14" t="str">
+        <v>na</v>
+      </c>
+      <c r="O14" t="str">
+        <v>na</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>S00093</v>
+      </c>
+      <c r="B15" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="C15" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="D15" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="F15" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="G15" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="H15" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="I15" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="J15" t="str">
+        <v>na</v>
+      </c>
+      <c r="K15" t="str">
+        <v>na</v>
+      </c>
+      <c r="L15" t="str">
+        <v>na</v>
+      </c>
+      <c r="M15" t="str">
+        <v>na</v>
+      </c>
+      <c r="N15" t="str">
+        <v>na</v>
+      </c>
+      <c r="O15" t="str">
+        <v>na</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>S00094</v>
+      </c>
+      <c r="B16" t="str">
+        <v>NA</v>
+      </c>
+      <c r="C16" t="str">
+        <v>n/a</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Data with incorrect columns.xlsx
+++ b/data/Data with incorrect columns.xlsx
@@ -937,6 +937,9 @@
       <c r="A13" t="str">
         <v>S00091</v>
       </c>
+      <c r="N13" t="str">
+        <v>23..65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
